--- a/Quizzes/Quizzes.xlsx
+++ b/Quizzes/Quizzes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Embedded Diploma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Codes\Github\Diploma-in-Depth\Quizzes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3448FF54-18C1-4431-B17B-31B0E277E654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C9EB1-97BF-466A-8664-E5F78BE2D217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{7886FB75-3CE5-4310-A611-A10D35C9040F}"/>
   </bookViews>
@@ -42,27 +42,15 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>44/60</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
-    <t>27/36</t>
-  </si>
-  <si>
     <t>Q3</t>
   </si>
   <si>
-    <t>27/40</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
-    <t>23/34</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -70,6 +58,18 @@
   </si>
   <si>
     <t>Denominator</t>
+  </si>
+  <si>
+    <t>56/60</t>
+  </si>
+  <si>
+    <t>32/36</t>
+  </si>
+  <si>
+    <t>36/40</t>
+  </si>
+  <si>
+    <t>28/34</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -491,13 +491,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -505,15 +505,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <f>D2/E2</f>
-        <v>0.73333333333333328</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>LEFT(B2, FIND("/", B2) - 1)</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>RIGHT(B2, LEN(B2) - FIND("/", B2))</f>
@@ -522,18 +522,18 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C5" si="0">D3/E3</f>
-        <v>0.75</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D5" si="1">LEFT(B3, FIND("/", B3) - 1)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E5" si="2">RIGHT(B3, LEN(B3) - FIND("/", B3))</f>
@@ -542,18 +542,18 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>0.67500000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="2"/>
@@ -562,18 +562,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>0.67647058823529416</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="2"/>

--- a/Quizzes/Quizzes.xlsx
+++ b/Quizzes/Quizzes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Codes\Github\Diploma-in-Depth\Quizzes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C9EB1-97BF-466A-8664-E5F78BE2D217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850B9941-1DE5-42AE-8B58-D4E59EFFE80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{7886FB75-3CE5-4310-A611-A10D35C9040F}"/>
   </bookViews>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Quiz</t>
   </si>
@@ -70,6 +75,24 @@
   </si>
   <si>
     <t>28/34</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>36/39</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>66/69</t>
+  </si>
+  <si>
+    <t>26/30</t>
   </si>
 </sst>
 </file>
@@ -468,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880512A9-61B9-41EB-99C8-B0AAB669CA04}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -528,15 +551,15 @@
         <v>10</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C5" si="0">D3/E3</f>
+        <f t="shared" ref="C3:C8" si="0">D3/E3</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D5" si="1">LEFT(B3, FIND("/", B3) - 1)</f>
+        <f t="shared" ref="D3:D8" si="1">LEFT(B3, FIND("/", B3) - 1)</f>
         <v>32</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E5" si="2">RIGHT(B3, LEN(B3) - FIND("/", B3))</f>
+        <f t="shared" ref="E3:E8" si="2">RIGHT(B3, LEN(B3) - FIND("/", B3))</f>
         <v>36</v>
       </c>
     </row>
@@ -568,16 +591,55 @@
         <v>12</v>
       </c>
       <c r="C5" s="4">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="D5" s="3" t="str">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="D8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="str">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
